--- a/Documenten/Mini Project Product Backlog.xlsx
+++ b/Documenten/Mini Project Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amzir\Documents\GitHub\Mini-Project\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845B314E-7E8E-474A-B01A-3B9E0E565292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F687A624-4982-46BF-90D2-341992AEF3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>Coder</t>
+  </si>
+  <si>
+    <t>Alper</t>
+  </si>
+  <si>
+    <t>Manojlo</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Alihan</t>
   </si>
 </sst>
 </file>
@@ -652,7 +664,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -724,7 +736,9 @@
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,7 +763,9 @@
       <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -774,7 +790,9 @@
       <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -787,7 +805,9 @@
       <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -838,7 +858,9 @@
       <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -851,6 +873,9 @@
       <c r="C15" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -863,7 +888,9 @@
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -899,7 +926,9 @@
       <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -925,7 +954,9 @@
       <c r="C21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -951,7 +982,9 @@
       <c r="C23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,7 +997,9 @@
       <c r="C24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -977,7 +1012,9 @@
       <c r="C25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3137,21 +3174,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065DA0B4C524F55429CE2FD5B93B01F74" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0b81802aa35bff97fe2d4068698eefb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ea016a50-4395-487d-ae85-89d5607ff42b" xmlns:ns3="1f7ab50f-86ca-4990-8cf2-d29dc34c52f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b03203aba3005218e1fa3e02034dd03" ns2:_="" ns3:_="">
     <xsd:import namespace="ea016a50-4395-487d-ae85-89d5607ff42b"/>
@@ -3316,24 +3338,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52455CA5-ED3E-453B-9081-F967EEE159E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3350,4 +3370,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Mini Project Product Backlog.xlsx
+++ b/Documenten/Mini Project Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amzir\Documents\GitHub\Mini-Project\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F687A624-4982-46BF-90D2-341992AEF3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE420A2-FAEA-4A81-8087-AE31A0239086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Alihan</t>
+  </si>
+  <si>
+    <t>Adel</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -712,7 +715,9 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
@@ -724,7 +729,9 @@
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -751,7 +758,9 @@
       <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -777,7 +786,9 @@
       <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -820,6 +831,9 @@
       <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -832,7 +846,9 @@
       <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -845,7 +861,9 @@
       <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -903,7 +921,9 @@
       <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -916,7 +936,9 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -941,7 +963,9 @@
       <c r="C20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -969,7 +993,9 @@
       <c r="C22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3174,6 +3200,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065DA0B4C524F55429CE2FD5B93B01F74" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0b81802aa35bff97fe2d4068698eefb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ea016a50-4395-487d-ae85-89d5607ff42b" xmlns:ns3="1f7ab50f-86ca-4990-8cf2-d29dc34c52f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b03203aba3005218e1fa3e02034dd03" ns2:_="" ns3:_="">
     <xsd:import namespace="ea016a50-4395-487d-ae85-89d5607ff42b"/>
@@ -3338,22 +3379,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52455CA5-ED3E-453B-9081-F967EEE159E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3370,21 +3413,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenten/Mini Project Product Backlog.xlsx
+++ b/Documenten/Mini Project Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amzir\Documents\GitHub\Mini-Project\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE420A2-FAEA-4A81-8087-AE31A0239086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DAB3F5-49F6-4BF7-BD84-6336C3100A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Adel</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Complexity</t>
   </si>
 </sst>
 </file>
@@ -309,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -381,6 +387,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,13 +670,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1001"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -679,7 +688,7 @@
     <col min="13" max="13" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -688,7 +697,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -704,8 +713,11 @@
       <c r="E2" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>1</v>
       </c>
@@ -718,8 +730,11 @@
       <c r="D3" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -732,8 +747,11 @@
       <c r="D4" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>3</v>
       </c>
@@ -747,8 +765,11 @@
         <v>39</v>
       </c>
       <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>4</v>
       </c>
@@ -761,8 +782,11 @@
       <c r="D6" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>5</v>
       </c>
@@ -775,8 +799,11 @@
       <c r="D7" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>6</v>
       </c>
@@ -790,8 +817,11 @@
         <v>42</v>
       </c>
       <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>7</v>
       </c>
@@ -805,8 +835,11 @@
         <v>39</v>
       </c>
       <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -820,8 +853,11 @@
         <v>41</v>
       </c>
       <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>9</v>
       </c>
@@ -835,8 +871,11 @@
         <v>43</v>
       </c>
       <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>10</v>
       </c>
@@ -850,8 +889,11 @@
         <v>41</v>
       </c>
       <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -865,8 +907,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>12</v>
       </c>
@@ -880,8 +925,11 @@
         <v>42</v>
       </c>
       <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>13</v>
       </c>
@@ -895,8 +943,11 @@
         <v>40</v>
       </c>
       <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>14</v>
       </c>
@@ -910,8 +961,11 @@
         <v>39</v>
       </c>
       <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -925,8 +979,11 @@
         <v>40</v>
       </c>
       <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>16</v>
       </c>
@@ -940,8 +997,11 @@
         <v>43</v>
       </c>
       <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>17</v>
       </c>
@@ -952,8 +1012,11 @@
         <v>40</v>
       </c>
       <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>18</v>
       </c>
@@ -967,8 +1030,11 @@
         <v>43</v>
       </c>
       <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>19</v>
       </c>
@@ -982,8 +1048,11 @@
         <v>41</v>
       </c>
       <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>20</v>
       </c>
@@ -997,8 +1066,11 @@
         <v>42</v>
       </c>
       <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>21</v>
       </c>
@@ -1012,8 +1084,11 @@
         <v>40</v>
       </c>
       <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>22</v>
       </c>
@@ -1027,8 +1102,11 @@
         <v>42</v>
       </c>
       <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>23</v>
       </c>
@@ -1042,48 +1120,51 @@
         <v>39</v>
       </c>
       <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
     </row>
-    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
     </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3200,21 +3281,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065DA0B4C524F55429CE2FD5B93B01F74" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0b81802aa35bff97fe2d4068698eefb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ea016a50-4395-487d-ae85-89d5607ff42b" xmlns:ns3="1f7ab50f-86ca-4990-8cf2-d29dc34c52f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b03203aba3005218e1fa3e02034dd03" ns2:_="" ns3:_="">
     <xsd:import namespace="ea016a50-4395-487d-ae85-89d5607ff42b"/>
@@ -3379,24 +3445,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52455CA5-ED3E-453B-9081-F967EEE159E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3413,4 +3477,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenten/Mini Project Product Backlog.xlsx
+++ b/Documenten/Mini Project Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amzir\Documents\GitHub\Mini-Project\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DAB3F5-49F6-4BF7-BD84-6336C3100A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C96243-05DC-4575-BF81-8C30D1F0D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,6 +377,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -387,9 +390,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,10 +673,10 @@
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -689,10 +689,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -748,7 +748,7 @@
         <v>43</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2186,10 +2186,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3281,6 +3281,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065DA0B4C524F55429CE2FD5B93B01F74" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0b81802aa35bff97fe2d4068698eefb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ea016a50-4395-487d-ae85-89d5607ff42b" xmlns:ns3="1f7ab50f-86ca-4990-8cf2-d29dc34c52f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b03203aba3005218e1fa3e02034dd03" ns2:_="" ns3:_="">
     <xsd:import namespace="ea016a50-4395-487d-ae85-89d5607ff42b"/>
@@ -3445,22 +3460,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52455CA5-ED3E-453B-9081-F967EEE159E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3477,21 +3494,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>